--- a/news_xpaths.xlsx
+++ b/news_xpaths.xlsx
@@ -131,14 +131,14 @@
     <t>KBS</t>
   </si>
   <si>
-    <t>//*[@id="cont_newstext"]'</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>경남도민일보</t>
   </si>
   <si>
     <t>//*[@id="article-view-content-div"]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id="cont_newstext"]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -479,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B17"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -612,16 +612,19 @@
         <v>30</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" t="s">
         <v>32</v>
       </c>
-      <c r="B17" t="s">
-        <v>33</v>
-      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B18" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
